--- a/xlsx_files/Race10.xlsx
+++ b/xlsx_files/Race10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE22D2-2F23-4745-884C-C163F025BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF88EE7-9CD8-4D56-8126-71B036D0A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
